--- a/Manufacturing/SnowduinoNullJLC_BOM.xlsx
+++ b/Manufacturing/SnowduinoNullJLC_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamingombala/Desktop/Snowduino Null/Production Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB37399-59D8-1442-82B3-8EB064386C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E727766-3BF7-604C-8686-E7D01DB7110E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="760" windowWidth="27780" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,9 +322,6 @@
     <t>R10,R11</t>
   </si>
   <si>
-    <t>R20,R5,R2,R4,R19</t>
-  </si>
-  <si>
     <t>R23,R6</t>
   </si>
   <si>
@@ -352,7 +349,10 @@
     <t>Crystal_SMD_MicroCrystal_CC7V-T1A-2Pin_3.2x1.5mm</t>
   </si>
   <si>
-    <t>R18,R22,R15,R16,R21</t>
+    <t>R20,R22,R5,R2,R4,R19</t>
+  </si>
+  <si>
+    <t>R18,R15,R16,R21</t>
   </si>
 </sst>
 </file>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1307,7 +1307,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>77</v>
@@ -1322,7 +1322,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>77</v>
@@ -1352,7 +1352,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>77</v>
@@ -1385,7 +1385,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="4"/>
@@ -1400,7 +1400,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="4"/>
@@ -1415,7 +1415,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="4"/>
@@ -1430,7 +1430,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="4"/>
@@ -1439,13 +1439,13 @@
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="4"/>
@@ -1460,7 +1460,7 @@
         <v>27</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="4"/>
